--- a/static/data/Dish.xlsx
+++ b/static/data/Dish.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iceline\Desktop\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\database_project\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F2297C-87EA-4250-BD39-00ECB0220BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768088F5-AC07-4BA5-9F3D-155B6BBEA665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1992" yWindow="3984" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,14 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cafeteria_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>served_time_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鸡扒饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,6 +390,14 @@
   </si>
   <si>
     <t>刺身拼盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cafeteria_id_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>served_time_id_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="D312" sqref="D312"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -759,10 +759,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>12</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -804,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>12</v>
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -838,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -872,7 +872,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>15</v>
@@ -889,7 +889,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>15</v>
@@ -906,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>15</v>
@@ -923,7 +923,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>15</v>
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>15</v>
@@ -957,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>15</v>
@@ -974,7 +974,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
         <v>15</v>
@@ -991,7 +991,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1">
         <v>15</v>
@@ -1008,7 +1008,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
         <v>18</v>
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>18</v>
@@ -1042,7 +1042,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1">
         <v>6</v>
@@ -1059,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1">
         <v>6</v>
@@ -1076,7 +1076,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
@@ -1093,7 +1093,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1">
         <v>6</v>
@@ -1110,7 +1110,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
         <v>10</v>
@@ -1144,7 +1144,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -1161,7 +1161,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
         <v>10</v>
@@ -1178,7 +1178,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1">
         <v>20</v>
@@ -1195,7 +1195,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1">
         <v>20</v>
@@ -1212,7 +1212,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1">
         <v>10</v>
@@ -1229,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1">
         <v>10</v>
@@ -1246,7 +1246,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1">
         <v>6</v>
@@ -1263,7 +1263,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -1280,7 +1280,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
@@ -1297,7 +1297,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>6</v>
@@ -1314,7 +1314,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1">
         <v>8</v>
@@ -1331,7 +1331,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1">
         <v>8</v>
@@ -1348,7 +1348,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1">
         <v>16</v>
@@ -1365,7 +1365,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1">
         <v>16</v>
@@ -1382,7 +1382,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1">
         <v>16</v>
@@ -1399,7 +1399,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" s="1">
         <v>16</v>
@@ -1416,7 +1416,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -1433,7 +1433,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1">
         <v>10</v>
@@ -1450,7 +1450,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1">
         <v>10</v>
@@ -1467,7 +1467,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1">
         <v>10</v>
@@ -1484,7 +1484,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
         <v>13</v>
@@ -1501,7 +1501,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1">
         <v>13</v>
@@ -1518,7 +1518,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1">
         <v>13</v>
@@ -1535,7 +1535,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1">
         <v>13</v>
@@ -1552,7 +1552,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1">
         <v>4</v>
@@ -1569,7 +1569,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" s="1">
         <v>4</v>
@@ -1586,7 +1586,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1">
         <v>4</v>
@@ -1603,7 +1603,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1">
         <v>4</v>
@@ -1620,7 +1620,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C52" s="1">
         <v>7</v>
@@ -1637,7 +1637,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C53" s="1">
         <v>7</v>
@@ -1654,7 +1654,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1">
         <v>7</v>
@@ -1671,7 +1671,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1">
         <v>7</v>
@@ -1688,7 +1688,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -1705,7 +1705,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C57" s="1">
         <v>5</v>
@@ -1722,7 +1722,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C58" s="1">
         <v>5</v>
@@ -1739,7 +1739,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1">
         <v>5</v>
@@ -1756,7 +1756,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1">
         <v>6</v>
@@ -1773,7 +1773,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1">
         <v>6</v>
@@ -1790,7 +1790,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1">
         <v>6</v>
@@ -1807,7 +1807,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C63" s="1">
         <v>6</v>
@@ -1824,7 +1824,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C64" s="1">
         <v>6</v>
@@ -1841,7 +1841,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C65" s="1">
         <v>6</v>
@@ -1858,7 +1858,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C66" s="1">
         <v>6</v>
@@ -1875,7 +1875,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C67" s="1">
         <v>6</v>
@@ -1892,7 +1892,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="1">
         <v>10</v>
@@ -1909,7 +1909,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="1">
         <v>10</v>
@@ -1926,7 +1926,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="1">
         <v>10</v>
@@ -1943,7 +1943,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1">
         <v>10</v>
@@ -1960,7 +1960,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1">
         <v>6</v>
@@ -1977,7 +1977,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1">
         <v>6</v>
@@ -1994,7 +1994,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C74" s="1">
         <v>6</v>
@@ -2011,7 +2011,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C75" s="1">
         <v>6</v>
@@ -2028,7 +2028,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C76" s="1">
         <v>6</v>
@@ -2045,7 +2045,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C77" s="1">
         <v>6</v>
@@ -2062,7 +2062,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C78" s="1">
         <v>6</v>
@@ -2079,7 +2079,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C79" s="1">
         <v>6</v>
@@ -2096,7 +2096,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C80" s="1">
         <v>8</v>
@@ -2113,7 +2113,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C81" s="1">
         <v>8</v>
@@ -2130,7 +2130,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C82" s="1">
         <v>8</v>
@@ -2147,7 +2147,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C83" s="1">
         <v>8</v>
@@ -2164,7 +2164,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C84" s="1">
         <v>6</v>
@@ -2181,7 +2181,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C85" s="1">
         <v>6</v>
@@ -2198,7 +2198,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C86" s="1">
         <v>6</v>
@@ -2215,7 +2215,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C87" s="1">
         <v>6</v>
@@ -2232,7 +2232,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C88" s="1">
         <v>12</v>
@@ -2249,7 +2249,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C89" s="1">
         <v>12</v>
@@ -2266,7 +2266,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C90" s="1">
         <v>8</v>
@@ -2283,7 +2283,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C91" s="1">
         <v>8</v>
@@ -2300,7 +2300,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C92" s="1">
         <v>8</v>
@@ -2317,7 +2317,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C93" s="1">
         <v>10</v>
@@ -2334,7 +2334,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C94" s="1">
         <v>10</v>
@@ -2351,7 +2351,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C95" s="1">
         <v>10</v>
@@ -2368,7 +2368,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C96" s="1">
         <v>13</v>
@@ -2385,7 +2385,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C97" s="1">
         <v>13</v>
@@ -2402,7 +2402,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C98" s="1">
         <v>13</v>
@@ -2419,7 +2419,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C99" s="1">
         <v>6</v>
@@ -2436,7 +2436,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>6</v>
@@ -2453,7 +2453,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C101" s="1">
         <v>4</v>
@@ -2470,7 +2470,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C102" s="1">
         <v>4</v>
@@ -2487,7 +2487,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C103" s="1">
         <v>6</v>
@@ -2504,7 +2504,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C104" s="1">
         <v>6</v>
@@ -2521,7 +2521,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C105" s="1">
         <v>4</v>
@@ -2538,7 +2538,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C106" s="1">
         <v>4</v>
@@ -2555,7 +2555,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C107" s="1">
         <v>22</v>
@@ -2572,7 +2572,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C108" s="1">
         <v>22</v>
@@ -2589,7 +2589,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C109" s="1">
         <v>12</v>
@@ -2606,7 +2606,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C110" s="1">
         <v>12</v>
@@ -2623,7 +2623,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C111" s="1">
         <v>18</v>
@@ -2640,7 +2640,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C112" s="1">
         <v>18</v>
@@ -2657,7 +2657,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C113" s="1">
         <v>14</v>
@@ -2674,7 +2674,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C114" s="1">
         <v>14</v>
@@ -2691,7 +2691,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C115" s="1">
         <v>14</v>
@@ -2708,7 +2708,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C116" s="1">
         <v>16</v>
@@ -2725,7 +2725,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C117" s="1">
         <v>16</v>
@@ -2742,7 +2742,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C118" s="1">
         <v>16</v>
@@ -2759,7 +2759,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C119" s="1">
         <v>6</v>
@@ -2776,7 +2776,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C120" s="1">
         <v>6</v>
@@ -2793,7 +2793,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C121" s="1">
         <v>6</v>
@@ -2810,7 +2810,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C122" s="1">
         <v>48</v>
@@ -2827,7 +2827,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C123" s="1">
         <v>48</v>
@@ -2844,7 +2844,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C124" s="1">
         <v>90</v>
@@ -2861,7 +2861,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C125" s="1">
         <v>90</v>
@@ -2878,7 +2878,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C126" s="1">
         <v>48</v>
@@ -2895,7 +2895,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C127" s="1">
         <v>48</v>
@@ -2912,7 +2912,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C128" s="1">
         <v>38</v>
@@ -2929,7 +2929,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C129" s="1">
         <v>38</v>
@@ -2946,7 +2946,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C130" s="1">
         <v>6</v>
@@ -2963,7 +2963,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C131" s="1">
         <v>6</v>
@@ -2980,7 +2980,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C132" s="1">
         <v>6</v>
@@ -2997,7 +2997,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C133" s="1">
         <v>8</v>
@@ -3014,7 +3014,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C134" s="1">
         <v>8</v>
@@ -3031,7 +3031,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C135" s="1">
         <v>8</v>
@@ -3048,7 +3048,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C136" s="1">
         <v>8</v>
@@ -3065,7 +3065,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C137" s="1">
         <v>8</v>
@@ -3082,7 +3082,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C138" s="1">
         <v>14</v>
@@ -3099,7 +3099,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C139" s="1">
         <v>14</v>
@@ -3116,7 +3116,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C140" s="1">
         <v>10</v>
@@ -3133,7 +3133,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C141" s="1">
         <v>10</v>
@@ -3150,7 +3150,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C142" s="1">
         <v>6</v>
@@ -3167,7 +3167,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C143" s="1">
         <v>6</v>
@@ -3184,7 +3184,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C144" s="1">
         <v>8</v>
@@ -3201,7 +3201,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C145" s="1">
         <v>8</v>
@@ -3218,7 +3218,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C146" s="1">
         <v>8</v>
@@ -3235,7 +3235,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C147" s="1">
         <v>8</v>
@@ -3252,7 +3252,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C148" s="1">
         <v>6</v>
@@ -3269,7 +3269,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C149" s="1">
         <v>6</v>
@@ -3286,7 +3286,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C150" s="1">
         <v>6</v>
@@ -3303,7 +3303,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C151" s="1">
         <v>6</v>
@@ -3320,7 +3320,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C152" s="1">
         <v>8</v>
@@ -3337,7 +3337,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C153" s="1">
         <v>8</v>
@@ -3354,7 +3354,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C154" s="1">
         <v>8</v>
@@ -3371,7 +3371,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C155" s="1">
         <v>8</v>
@@ -3388,7 +3388,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C156" s="1">
         <v>8</v>
@@ -3405,7 +3405,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C157" s="1">
         <v>8</v>
@@ -3422,7 +3422,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C158" s="1">
         <v>8</v>
@@ -3439,7 +3439,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C159" s="1">
         <v>8</v>
@@ -3456,7 +3456,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C160" s="1">
         <v>6</v>
@@ -3473,7 +3473,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C161" s="1">
         <v>6</v>
@@ -3490,7 +3490,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C162" s="1">
         <v>6</v>
@@ -3507,7 +3507,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C163" s="1">
         <v>6</v>
@@ -3524,7 +3524,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C164" s="1">
         <v>6</v>
@@ -3541,7 +3541,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C165" s="1">
         <v>6</v>
@@ -3558,7 +3558,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C166" s="1">
         <v>6</v>
@@ -3575,7 +3575,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C167" s="1">
         <v>6</v>
@@ -3592,7 +3592,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C168" s="1">
         <v>6</v>
@@ -3609,7 +3609,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C169" s="1">
         <v>6</v>
@@ -3626,7 +3626,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C170" s="1">
         <v>6</v>
@@ -3643,7 +3643,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C171" s="1">
         <v>6</v>
@@ -3660,7 +3660,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C172" s="1">
         <v>8</v>
@@ -3677,7 +3677,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C173" s="1">
         <v>8</v>
@@ -3694,7 +3694,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C174" s="1">
         <v>8</v>
@@ -3711,7 +3711,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C175" s="1">
         <v>8</v>
@@ -3728,7 +3728,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C176" s="1">
         <v>8</v>
@@ -3745,7 +3745,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C177" s="1">
         <v>8</v>
@@ -3762,7 +3762,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C178" s="1">
         <v>8</v>
@@ -3779,7 +3779,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C179" s="1">
         <v>8</v>
@@ -3796,7 +3796,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C180" s="1">
         <v>8</v>
@@ -3813,7 +3813,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C181" s="1">
         <v>8</v>
@@ -3830,7 +3830,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C182" s="1">
         <v>8</v>
@@ -3847,7 +3847,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C183" s="1">
         <v>8</v>
@@ -3864,7 +3864,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C184" s="1">
         <v>8</v>
@@ -3881,7 +3881,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C185" s="1">
         <v>8</v>
@@ -3898,7 +3898,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C186" s="1">
         <v>8</v>
@@ -3915,7 +3915,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C187" s="1">
         <v>8</v>
@@ -3932,7 +3932,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C188" s="1">
         <v>6</v>
@@ -3949,7 +3949,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C189" s="1">
         <v>6</v>
@@ -3966,7 +3966,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C190" s="1">
         <v>12</v>
@@ -3983,7 +3983,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C191" s="1">
         <v>12</v>
@@ -4000,7 +4000,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C192" s="1">
         <v>10</v>
@@ -4017,7 +4017,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C193" s="1">
         <v>10</v>
@@ -4034,7 +4034,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C194" s="1">
         <v>10</v>
@@ -4051,7 +4051,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C195" s="1">
         <v>10</v>
@@ -4068,7 +4068,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C196" s="1">
         <v>10</v>
@@ -4085,7 +4085,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C197" s="1">
         <v>10</v>
@@ -4102,7 +4102,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C198" s="1">
         <v>12</v>
@@ -4119,7 +4119,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C199" s="1">
         <v>12</v>
@@ -4136,7 +4136,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C200" s="1">
         <v>12</v>
@@ -4153,7 +4153,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C201" s="1">
         <v>14</v>
@@ -4170,7 +4170,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C202" s="1">
         <v>14</v>
@@ -4187,7 +4187,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C203" s="1">
         <v>14</v>
@@ -4204,7 +4204,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C204" s="1">
         <v>14</v>
@@ -4221,7 +4221,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C205" s="1">
         <v>14</v>
@@ -4238,7 +4238,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C206" s="1">
         <v>14</v>
@@ -4255,7 +4255,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C207" s="1">
         <v>18</v>
@@ -4272,7 +4272,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C208" s="1">
         <v>18</v>
@@ -4289,7 +4289,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C209" s="1">
         <v>18</v>
@@ -4306,7 +4306,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C210" s="1">
         <v>14</v>
@@ -4323,7 +4323,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C211" s="1">
         <v>14</v>
@@ -4340,7 +4340,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C212" s="1">
         <v>14</v>
@@ -4357,7 +4357,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C213" s="1">
         <v>8</v>
@@ -4374,7 +4374,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C214" s="1">
         <v>8</v>
@@ -4391,7 +4391,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C215" s="1">
         <v>8</v>
@@ -4408,7 +4408,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C216" s="1">
         <v>8</v>
@@ -4425,7 +4425,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C217" s="1">
         <v>8</v>
@@ -4442,7 +4442,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C218" s="1">
         <v>8</v>
@@ -4459,7 +4459,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C219" s="1">
         <v>8</v>
@@ -4476,7 +4476,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C220" s="1">
         <v>8</v>
@@ -4493,7 +4493,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C221" s="1">
         <v>8</v>
@@ -4510,7 +4510,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C222" s="1">
         <v>8</v>
@@ -4527,7 +4527,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C223" s="1">
         <v>8</v>
@@ -4544,7 +4544,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C224" s="1">
         <v>8</v>
@@ -4561,7 +4561,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C225" s="1">
         <v>8</v>
@@ -4578,7 +4578,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C226" s="1">
         <v>8</v>
@@ -4595,7 +4595,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C227" s="1">
         <v>8</v>
@@ -4612,7 +4612,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C228" s="1">
         <v>14</v>
@@ -4629,7 +4629,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C229" s="1">
         <v>14</v>
@@ -4646,7 +4646,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C230" s="1">
         <v>14</v>
@@ -4663,7 +4663,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C231" s="1">
         <v>14</v>
@@ -4680,7 +4680,7 @@
         <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C232" s="1">
         <v>14</v>
@@ -4697,7 +4697,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C233" s="1">
         <v>14</v>
@@ -4714,7 +4714,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C234" s="1">
         <v>16</v>
@@ -4731,7 +4731,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C235" s="1">
         <v>16</v>
@@ -4748,7 +4748,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C236" s="1">
         <v>16</v>
@@ -4765,7 +4765,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C237" s="1">
         <v>14</v>
@@ -4782,7 +4782,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C238" s="1">
         <v>14</v>
@@ -4799,7 +4799,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C239" s="1">
         <v>14</v>
@@ -4816,7 +4816,7 @@
         <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C240" s="1">
         <v>16</v>
@@ -4833,7 +4833,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C241" s="1">
         <v>16</v>
@@ -4850,7 +4850,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C242" s="1">
         <v>16</v>
@@ -4867,7 +4867,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C243" s="1">
         <v>20</v>
@@ -4884,7 +4884,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C244" s="1">
         <v>20</v>
@@ -4901,7 +4901,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C245" s="1">
         <v>20</v>
@@ -4918,7 +4918,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C246" s="1">
         <v>12</v>
@@ -4935,7 +4935,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C247" s="1">
         <v>12</v>
@@ -4952,7 +4952,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C248" s="1">
         <v>12</v>
@@ -4969,7 +4969,7 @@
         <v>247</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C249" s="1">
         <v>16</v>
@@ -4986,7 +4986,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C250" s="1">
         <v>16</v>
@@ -5003,7 +5003,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C251" s="1">
         <v>16</v>
@@ -5020,7 +5020,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C252" s="1">
         <v>10</v>
@@ -5037,7 +5037,7 @@
         <v>251</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C253" s="1">
         <v>10</v>
@@ -5054,7 +5054,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C254" s="1">
         <v>10</v>
@@ -5071,7 +5071,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C255" s="1">
         <v>10</v>
@@ -5088,7 +5088,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C256" s="1">
         <v>6</v>
@@ -5105,7 +5105,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C257" s="1">
         <v>6</v>
@@ -5122,7 +5122,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C258" s="1">
         <v>6</v>
@@ -5139,7 +5139,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C259" s="1">
         <v>6</v>
@@ -5156,7 +5156,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C260" s="1">
         <v>12</v>
@@ -5173,7 +5173,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C261" s="1">
         <v>12</v>
@@ -5190,7 +5190,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C262" s="1">
         <v>12</v>
@@ -5207,7 +5207,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C263" s="1">
         <v>12</v>
@@ -5224,7 +5224,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C264" s="1">
         <v>8</v>
@@ -5241,7 +5241,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C265" s="1">
         <v>8</v>
@@ -5258,7 +5258,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C266" s="1">
         <v>8</v>
@@ -5275,7 +5275,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C267" s="1">
         <v>8</v>
@@ -5292,7 +5292,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C268" s="1">
         <v>10</v>
@@ -5309,7 +5309,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C269" s="1">
         <v>10</v>
@@ -5326,7 +5326,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C270" s="1">
         <v>10</v>
@@ -5343,7 +5343,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C271" s="1">
         <v>10</v>
@@ -5360,7 +5360,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C272" s="1">
         <v>10</v>
@@ -5377,7 +5377,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C273" s="1">
         <v>10</v>
@@ -5394,7 +5394,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C274" s="1">
         <v>10</v>
@@ -5411,7 +5411,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C275" s="1">
         <v>10</v>
@@ -5428,7 +5428,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C276" s="1">
         <v>12</v>
@@ -5445,7 +5445,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C277" s="1">
         <v>12</v>
@@ -5462,7 +5462,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C278" s="1">
         <v>12</v>
@@ -5479,7 +5479,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C279" s="1">
         <v>12</v>
@@ -5496,7 +5496,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C280" s="1">
         <v>14</v>
@@ -5513,7 +5513,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C281" s="1">
         <v>14</v>
@@ -5530,7 +5530,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C282" s="1">
         <v>14</v>
@@ -5547,7 +5547,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C283" s="1">
         <v>14</v>
@@ -5564,7 +5564,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C284" s="1">
         <v>18</v>
@@ -5581,7 +5581,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C285" s="1">
         <v>18</v>
@@ -5598,7 +5598,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C286" s="1">
         <v>18</v>
@@ -5615,7 +5615,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C287" s="1">
         <v>12</v>
@@ -5632,7 +5632,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C288" s="1">
         <v>12</v>
@@ -5649,7 +5649,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C289" s="1">
         <v>12</v>
@@ -5666,7 +5666,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C290" s="1">
         <v>10</v>
@@ -5683,7 +5683,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C291" s="1">
         <v>10</v>
@@ -5700,7 +5700,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C292" s="1">
         <v>10</v>
@@ -5717,7 +5717,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C293" s="1">
         <v>21</v>
@@ -5734,7 +5734,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C294" s="1">
         <v>21</v>
@@ -5751,7 +5751,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C295" s="1">
         <v>21</v>
@@ -5768,7 +5768,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C296" s="1">
         <v>16</v>
@@ -5785,7 +5785,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C297" s="1">
         <v>16</v>
@@ -5802,7 +5802,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C298" s="1">
         <v>16</v>
@@ -5819,7 +5819,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C299" s="1">
         <v>13</v>
@@ -5836,7 +5836,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C300" s="1">
         <v>13</v>
@@ -5853,7 +5853,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C301" s="1">
         <v>13</v>
@@ -5870,7 +5870,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C302" s="1">
         <v>24</v>
@@ -5887,7 +5887,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C303" s="1">
         <v>24</v>
@@ -5904,7 +5904,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C304" s="1">
         <v>24</v>
@@ -5921,7 +5921,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C305" s="1">
         <v>13</v>
@@ -5938,7 +5938,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C306" s="1">
         <v>13</v>
@@ -5955,7 +5955,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C307" s="1">
         <v>13</v>
@@ -5972,7 +5972,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C308" s="1">
         <v>12</v>
@@ -5989,7 +5989,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C309" s="1">
         <v>12</v>
@@ -6006,7 +6006,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C310" s="1">
         <v>12</v>
